--- a/MTH9821/hw1_9821_fall2023_mc1_ycsun.xlsx
+++ b/MTH9821/hw1_9821_fall2023_mc1_ycsun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yicheng.sun/Desktop/course_23fall/MTH9821/MTH9821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A311C-17CE-9646-B13C-F58DF45C9D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461ADC4-F169-9048-8132-761A7EE06322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26020" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12940" yWindow="1980" windowWidth="26020" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1238,34 +1238,34 @@
         <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>0.58265847578668195</v>
+        <v>0.51850176132349302</v>
       </c>
       <c r="C23" s="10">
-        <v>0.59057567989514204</v>
+        <v>0.52684740794464602</v>
       </c>
       <c r="D23" s="10">
-        <v>0.583857014471585</v>
+        <v>0.51831643950587003</v>
       </c>
       <c r="E23" s="10">
-        <v>0.58536617043741601</v>
+        <v>0.521758605250084</v>
       </c>
       <c r="F23" s="10">
-        <v>0.58870420736417906</v>
+        <v>0.52311623306127797</v>
       </c>
       <c r="G23" s="10">
-        <v>0.58741459351272096</v>
+        <v>0.52266725498519595</v>
       </c>
       <c r="H23" s="10">
-        <v>0.58628323313226505</v>
+        <v>0.52207121341771601</v>
       </c>
       <c r="I23" s="10">
-        <v>0.58638758776840705</v>
+        <v>0.52156006584312098</v>
       </c>
       <c r="J23" s="10">
-        <v>0.58728934905635</v>
+        <v>0.52281544856760398</v>
       </c>
       <c r="K23" s="10">
-        <v>0.586955334775485</v>
+        <v>0.52236239768520298</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1288,34 +1288,34 @@
         <v>31</v>
       </c>
       <c r="B24" s="10">
-        <v>0.41926703480824601</v>
+        <v>0.39689679056710298</v>
       </c>
       <c r="C24" s="10">
-        <v>0.52672861574434404</v>
+        <v>0.61895583975841095</v>
       </c>
       <c r="D24" s="10">
-        <v>0.59882633263581597</v>
+        <v>0.83085794465878104</v>
       </c>
       <c r="E24" s="10">
-        <v>0.42001455419684802</v>
+        <v>0.20141907786115701</v>
       </c>
       <c r="F24" s="10">
-        <v>0.741224491766035</v>
+        <v>0.25820153284557001</v>
       </c>
       <c r="G24" s="10">
-        <v>0.31873396943594801</v>
+        <v>0.111171755814442</v>
       </c>
       <c r="H24" s="10">
-        <v>0.45433040199886998</v>
+        <v>0.31961264915834098</v>
       </c>
       <c r="I24" s="10">
-        <v>0.52445642292327999</v>
+        <v>1.03029800903947</v>
       </c>
       <c r="J24" s="10">
-        <v>0.70112467453800098</v>
+        <v>0.551550941503542</v>
       </c>
       <c r="K24" s="10">
-        <v>0.23575198200515499</v>
+        <v>0.245126301924077</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="B25" s="10">
-        <v>2.00628183554485E-2</v>
+        <v>5.5624824398980997E-2</v>
       </c>
       <c r="C25" s="10">
-        <v>1.4318272555158299E-2</v>
+        <v>4.9414831213034902E-2</v>
       </c>
       <c r="D25" s="10">
-        <v>1.8832419085690302E-2</v>
+        <v>4.2446893419700898E-2</v>
       </c>
       <c r="E25" s="10">
-        <v>2.0509574387794799E-2</v>
+        <v>4.1463828044774297E-2</v>
       </c>
       <c r="F25" s="10">
-        <v>1.8840126516117502E-2</v>
+        <v>4.5174037341100301E-2</v>
       </c>
       <c r="G25" s="10">
-        <v>1.8654979360199799E-2</v>
+        <v>4.3370703399636702E-2</v>
       </c>
       <c r="H25" s="10">
-        <v>1.9091265286696999E-2</v>
+        <v>4.2415697124686999E-2</v>
       </c>
       <c r="I25" s="10">
-        <v>1.9717437935185E-2</v>
+        <v>4.3861610049544801E-2</v>
       </c>
       <c r="J25" s="10">
-        <v>1.8978911963962699E-2</v>
+        <v>4.5019966298820401E-2</v>
       </c>
       <c r="K25" s="10">
-        <v>1.9038950795291502E-2</v>
+        <v>4.46206728612175E-2</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1388,34 +1388,34 @@
         <v>33</v>
       </c>
       <c r="B26" s="10">
-        <v>0.111223960043982</v>
+        <v>1.11160367115687</v>
       </c>
       <c r="C26" s="10">
-        <v>0.65510702528934805</v>
+        <v>0.69381932915282696</v>
       </c>
       <c r="D26" s="10">
-        <v>2.36319338636777E-2</v>
+        <v>0.41237885354227799</v>
       </c>
       <c r="E26" s="10">
-        <v>0.44095055351329099</v>
+        <v>0.86124464469945805</v>
       </c>
       <c r="F26" s="10">
-        <v>4.4180895556468501E-2</v>
+        <v>0.26609986147519998</v>
       </c>
       <c r="G26" s="10">
-        <v>0.16721626926723601</v>
+        <v>0.64379769395838704</v>
       </c>
       <c r="H26" s="10">
-        <v>0.112549225350642</v>
+        <v>1.6744724501802399</v>
       </c>
       <c r="I26" s="10">
-        <v>0.86760212242847301</v>
+        <v>0.73219791418938696</v>
       </c>
       <c r="J26" s="10">
-        <v>4.5333134326414101E-2</v>
+        <v>0.81788577825307995</v>
       </c>
       <c r="K26" s="10">
-        <v>0.19996310064397499</v>
+        <v>0.253167248358178</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>

--- a/MTH9821/hw1_9821_fall2023_mc1_ycsun.xlsx
+++ b/MTH9821/hw1_9821_fall2023_mc1_ycsun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yicheng.sun/Desktop/course_23fall/MTH9821/MTH9821/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4461ADC4-F169-9048-8132-761A7EE06322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9048B70-3432-4D41-A9C2-BB933AB59E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="1980" windowWidth="26020" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="1980" windowWidth="26020" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -1238,34 +1238,34 @@
         <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>0.51850176132349302</v>
+        <v>0.52571100000000004</v>
       </c>
       <c r="C23" s="10">
-        <v>0.52684740794464602</v>
+        <v>0.51996699999999996</v>
       </c>
       <c r="D23" s="10">
-        <v>0.51831643950587003</v>
+        <v>0.52080599999999999</v>
       </c>
       <c r="E23" s="10">
-        <v>0.521758605250084</v>
+        <v>0.52005800000000002</v>
       </c>
       <c r="F23" s="10">
-        <v>0.52311623306127797</v>
+        <v>0.51994499999999999</v>
       </c>
       <c r="G23" s="10">
-        <v>0.52266725498519595</v>
+        <v>0.52137</v>
       </c>
       <c r="H23" s="10">
-        <v>0.52207121341771601</v>
+        <v>0.52173000000000003</v>
       </c>
       <c r="I23" s="10">
-        <v>0.52156006584312098</v>
+        <v>0.52219499999999996</v>
       </c>
       <c r="J23" s="10">
-        <v>0.52281544856760398</v>
+        <v>0.52193699999999998</v>
       </c>
       <c r="K23" s="10">
-        <v>0.52236239768520298</v>
+        <v>0.52224999999999999</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1288,34 +1288,34 @@
         <v>31</v>
       </c>
       <c r="B24" s="10">
-        <v>0.39689679056710298</v>
+        <v>0.32397700000000001</v>
       </c>
       <c r="C24" s="10">
-        <v>0.61895583975841095</v>
+        <v>0.354045</v>
       </c>
       <c r="D24" s="10">
-        <v>0.83085794465878104</v>
+        <v>0.33303700000000003</v>
       </c>
       <c r="E24" s="10">
-        <v>0.20141907786115701</v>
+        <v>0.68244899999999997</v>
       </c>
       <c r="F24" s="10">
-        <v>0.25820153284557001</v>
+        <v>1.0102359999999999</v>
       </c>
       <c r="G24" s="10">
-        <v>0.111171755814442</v>
+        <v>0.62253899999999995</v>
       </c>
       <c r="H24" s="10">
-        <v>0.31961264915834098</v>
+        <v>0.59229200000000004</v>
       </c>
       <c r="I24" s="10">
-        <v>1.03029800903947</v>
+        <v>0.31154799999999999</v>
       </c>
       <c r="J24" s="10">
-        <v>0.551550941503542</v>
+        <v>0.85329100000000002</v>
       </c>
       <c r="K24" s="10">
-        <v>0.245126301924077</v>
+        <v>0.49923099999999998</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1338,34 +1338,34 @@
         <v>32</v>
       </c>
       <c r="B25" s="10">
-        <v>5.5624824398980997E-2</v>
+        <v>4.3838000000000002E-2</v>
       </c>
       <c r="C25" s="10">
-        <v>4.9414831213034902E-2</v>
+        <v>4.1515000000000003E-2</v>
       </c>
       <c r="D25" s="10">
-        <v>4.2446893419700898E-2</v>
+        <v>3.9639000000000001E-2</v>
       </c>
       <c r="E25" s="10">
-        <v>4.1463828044774297E-2</v>
+        <v>4.2407E-2</v>
       </c>
       <c r="F25" s="10">
-        <v>4.5174037341100301E-2</v>
+        <v>4.2445999999999998E-2</v>
       </c>
       <c r="G25" s="10">
-        <v>4.3370703399636702E-2</v>
+        <v>4.326E-2</v>
       </c>
       <c r="H25" s="10">
-        <v>4.2415697124686999E-2</v>
+        <v>4.3188999999999998E-2</v>
       </c>
       <c r="I25" s="10">
-        <v>4.3861610049544801E-2</v>
+        <v>4.3293999999999999E-2</v>
       </c>
       <c r="J25" s="10">
-        <v>4.5019966298820401E-2</v>
+        <v>4.3943000000000003E-2</v>
       </c>
       <c r="K25" s="10">
-        <v>4.46206728612175E-2</v>
+        <v>4.3874999999999997E-2</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1388,34 +1388,34 @@
         <v>33</v>
       </c>
       <c r="B26" s="10">
-        <v>1.11160367115687</v>
+        <v>6.7084000000000005E-2</v>
       </c>
       <c r="C26" s="10">
-        <v>0.69381932915282696</v>
+        <v>0.42335699999999998</v>
       </c>
       <c r="D26" s="10">
-        <v>0.41237885354227799</v>
+        <v>0.97398700000000005</v>
       </c>
       <c r="E26" s="10">
-        <v>0.86124464469945805</v>
+        <v>0.59439799999999998</v>
       </c>
       <c r="F26" s="10">
-        <v>0.26609986147519998</v>
+        <v>0.82527899999999998</v>
       </c>
       <c r="G26" s="10">
-        <v>0.64379769395838704</v>
+        <v>0.70644799999999996</v>
       </c>
       <c r="H26" s="10">
-        <v>1.6744724501802399</v>
+        <v>1.055933</v>
       </c>
       <c r="I26" s="10">
-        <v>0.73219791418938696</v>
+        <v>1.373977</v>
       </c>
       <c r="J26" s="10">
-        <v>0.81788577825307995</v>
+        <v>0.90582799999999997</v>
       </c>
       <c r="K26" s="10">
-        <v>0.253167248358178</v>
+        <v>1.433209</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
